--- a/src/test/resources/template/excel/excel_多块.xlsx
+++ b/src/test/resources/template/excel/excel_多块.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874F91D9-788C-CA47-B356-75F9C46DC36A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FF2C75-58B0-FF45-B0A5-1BB257DE4C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="多块导入" sheetId="1" r:id="rId1"/>
+    <sheet name="多块" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -613,7 +613,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
